--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl12-Ccr1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl12-Ccr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Ccr1</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +528,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.361892769923</v>
+        <v>40.32940166666666</v>
       </c>
       <c r="H2">
-        <v>32.361892769923</v>
+        <v>120.988205</v>
       </c>
       <c r="I2">
-        <v>0.4308148860356953</v>
+        <v>0.4705770439863239</v>
       </c>
       <c r="J2">
-        <v>0.4308148860356953</v>
+        <v>0.4705770439863239</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>17.3918391589297</v>
+        <v>0.002632</v>
       </c>
       <c r="N2">
-        <v>17.3918391589297</v>
+        <v>0.007896</v>
       </c>
       <c r="O2">
-        <v>0.04829507221310243</v>
+        <v>6.230194780080539E-06</v>
       </c>
       <c r="P2">
-        <v>0.04829507221310243</v>
+        <v>6.230194780080539E-06</v>
       </c>
       <c r="Q2">
-        <v>562.8328339330308</v>
+        <v>0.1061469851866667</v>
       </c>
       <c r="R2">
-        <v>562.8328339330308</v>
+        <v>0.95532286668</v>
       </c>
       <c r="S2">
-        <v>0.0208062360315734</v>
+        <v>2.931786643069325E-06</v>
       </c>
       <c r="T2">
-        <v>0.0208062360315734</v>
+        <v>2.931786643069325E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,55 +590,55 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.361892769923</v>
+        <v>40.32940166666666</v>
       </c>
       <c r="H3">
-        <v>32.361892769923</v>
+        <v>120.988205</v>
       </c>
       <c r="I3">
-        <v>0.4308148860356953</v>
+        <v>0.4705770439863239</v>
       </c>
       <c r="J3">
-        <v>0.4308148860356953</v>
+        <v>0.4705770439863239</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.0751712488256</v>
+        <v>58.61543533333333</v>
       </c>
       <c r="N3">
-        <v>22.0751712488256</v>
+        <v>175.846306</v>
       </c>
       <c r="O3">
-        <v>0.06130012932135721</v>
+        <v>0.1387483203821739</v>
       </c>
       <c r="P3">
-        <v>0.06130012932135721</v>
+        <v>0.1387483203821739</v>
       </c>
       <c r="Q3">
-        <v>714.3943248321814</v>
+        <v>2363.925435424525</v>
       </c>
       <c r="R3">
-        <v>714.3943248321814</v>
+        <v>21275.32891882073</v>
       </c>
       <c r="S3">
-        <v>0.02640900822755389</v>
+        <v>0.0652917744635108</v>
       </c>
       <c r="T3">
-        <v>0.02640900822755389</v>
+        <v>0.06529177446351081</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,60 +652,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.361892769923</v>
+        <v>40.32940166666666</v>
       </c>
       <c r="H4">
-        <v>32.361892769923</v>
+        <v>120.988205</v>
       </c>
       <c r="I4">
-        <v>0.4308148860356953</v>
+        <v>0.4705770439863239</v>
       </c>
       <c r="J4">
-        <v>0.4308148860356953</v>
+        <v>0.4705770439863239</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>320.649215988761</v>
+        <v>28.58678433333334</v>
       </c>
       <c r="N4">
-        <v>320.649215988761</v>
+        <v>85.76035300000001</v>
       </c>
       <c r="O4">
-        <v>0.8904047984655403</v>
+        <v>0.06766764229970421</v>
       </c>
       <c r="P4">
-        <v>0.8904047984655403</v>
+        <v>0.06766764229970421</v>
       </c>
       <c r="Q4">
-        <v>10376.81554458816</v>
+        <v>1152.887907737374</v>
       </c>
       <c r="R4">
-        <v>10376.81554458816</v>
+        <v>10375.99116963637</v>
       </c>
       <c r="S4">
-        <v>0.383599641776568</v>
+        <v>0.03184283908691873</v>
       </c>
       <c r="T4">
-        <v>0.383599641776568</v>
+        <v>0.03184283908691874</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,55 +714,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>34.6367828298141</v>
+        <v>40.32940166666666</v>
       </c>
       <c r="H5">
-        <v>34.6367828298141</v>
+        <v>120.988205</v>
       </c>
       <c r="I5">
-        <v>0.4610991623252014</v>
+        <v>0.4705770439863239</v>
       </c>
       <c r="J5">
-        <v>0.4610991623252014</v>
+        <v>0.4705770439863239</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.3918391589297</v>
+        <v>335.2538503333333</v>
       </c>
       <c r="N5">
-        <v>17.3918391589297</v>
+        <v>1005.761551</v>
       </c>
       <c r="O5">
-        <v>0.04829507221310243</v>
+        <v>0.7935778071233418</v>
       </c>
       <c r="P5">
-        <v>0.04829507221310243</v>
+        <v>0.7935778071233417</v>
       </c>
       <c r="Q5">
-        <v>602.3973559589048</v>
+        <v>13520.58719038955</v>
       </c>
       <c r="R5">
-        <v>602.3973559589048</v>
+        <v>121685.284713506</v>
       </c>
       <c r="S5">
-        <v>0.02226881734189664</v>
+        <v>0.3734394986492512</v>
       </c>
       <c r="T5">
-        <v>0.02226881734189664</v>
+        <v>0.3734394986492512</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,55 +776,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>34.6367828298141</v>
+        <v>35.65443533333333</v>
       </c>
       <c r="H6">
-        <v>34.6367828298141</v>
+        <v>106.963306</v>
       </c>
       <c r="I6">
-        <v>0.4610991623252014</v>
+        <v>0.41602796200245</v>
       </c>
       <c r="J6">
-        <v>0.4610991623252014</v>
+        <v>0.41602796200245</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>22.0751712488256</v>
+        <v>0.002632</v>
       </c>
       <c r="N6">
-        <v>22.0751712488256</v>
+        <v>0.007896</v>
       </c>
       <c r="O6">
-        <v>0.06130012932135721</v>
+        <v>6.230194780080539E-06</v>
       </c>
       <c r="P6">
-        <v>0.06130012932135721</v>
+        <v>6.230194780080539E-06</v>
       </c>
       <c r="Q6">
-        <v>764.6129124765285</v>
+        <v>0.09384247379733333</v>
       </c>
       <c r="R6">
-        <v>764.6129124765285</v>
+        <v>0.8445822641759999</v>
       </c>
       <c r="S6">
-        <v>0.02826543828050433</v>
+        <v>2.591935237235209E-06</v>
       </c>
       <c r="T6">
-        <v>0.02826543828050433</v>
+        <v>2.591935237235208E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,60 +838,60 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>34.6367828298141</v>
+        <v>35.65443533333333</v>
       </c>
       <c r="H7">
-        <v>34.6367828298141</v>
+        <v>106.963306</v>
       </c>
       <c r="I7">
-        <v>0.4610991623252014</v>
+        <v>0.41602796200245</v>
       </c>
       <c r="J7">
-        <v>0.4610991623252014</v>
+        <v>0.41602796200245</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>320.649215988761</v>
+        <v>58.61543533333333</v>
       </c>
       <c r="N7">
-        <v>320.649215988761</v>
+        <v>175.846306</v>
       </c>
       <c r="O7">
-        <v>0.8904047984655403</v>
+        <v>0.1387483203821739</v>
       </c>
       <c r="P7">
-        <v>0.8904047984655403</v>
+        <v>0.1387483203821739</v>
       </c>
       <c r="Q7">
-        <v>11106.25725875287</v>
+        <v>2089.900248627515</v>
       </c>
       <c r="R7">
-        <v>11106.25725875287</v>
+        <v>18809.10223764763</v>
       </c>
       <c r="S7">
-        <v>0.4105649067028004</v>
+        <v>0.05772318095985879</v>
       </c>
       <c r="T7">
-        <v>0.4105649067028004</v>
+        <v>0.05772318095985879</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -897,60 +900,60 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.11918550230858</v>
+        <v>35.65443533333333</v>
       </c>
       <c r="H8">
-        <v>8.11918550230858</v>
+        <v>106.963306</v>
       </c>
       <c r="I8">
-        <v>0.1080859516391032</v>
+        <v>0.41602796200245</v>
       </c>
       <c r="J8">
-        <v>0.1080859516391032</v>
+        <v>0.41602796200245</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.3918391589297</v>
+        <v>28.58678433333334</v>
       </c>
       <c r="N8">
-        <v>17.3918391589297</v>
+        <v>85.76035300000001</v>
       </c>
       <c r="O8">
-        <v>0.04829507221310243</v>
+        <v>0.06766764229970421</v>
       </c>
       <c r="P8">
-        <v>0.04829507221310243</v>
+        <v>0.06766764229970421</v>
       </c>
       <c r="Q8">
-        <v>141.2075683576647</v>
+        <v>1019.24565340078</v>
       </c>
       <c r="R8">
-        <v>141.2075683576647</v>
+        <v>9173.210880607017</v>
       </c>
       <c r="S8">
-        <v>0.005220018839632385</v>
+        <v>0.02815163131945672</v>
       </c>
       <c r="T8">
-        <v>0.005220018839632385</v>
+        <v>0.02815163131945672</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -959,55 +962,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.11918550230858</v>
+        <v>35.65443533333333</v>
       </c>
       <c r="H9">
-        <v>8.11918550230858</v>
+        <v>106.963306</v>
       </c>
       <c r="I9">
-        <v>0.1080859516391032</v>
+        <v>0.41602796200245</v>
       </c>
       <c r="J9">
-        <v>0.1080859516391032</v>
+        <v>0.41602796200245</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.0751712488256</v>
+        <v>335.2538503333333</v>
       </c>
       <c r="N9">
-        <v>22.0751712488256</v>
+        <v>1005.761551</v>
       </c>
       <c r="O9">
-        <v>0.06130012932135721</v>
+        <v>0.7935778071233418</v>
       </c>
       <c r="P9">
-        <v>0.06130012932135721</v>
+        <v>0.7935778071233417</v>
       </c>
       <c r="Q9">
-        <v>179.232410364444</v>
+        <v>11953.28672696085</v>
       </c>
       <c r="R9">
-        <v>179.232410364444</v>
+        <v>107579.5805426476</v>
       </c>
       <c r="S9">
-        <v>0.006625682813298986</v>
+        <v>0.3301505577878972</v>
       </c>
       <c r="T9">
-        <v>0.006625682813298986</v>
+        <v>0.3301505577878971</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,55 +1024,241 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>9.718179666666666</v>
+      </c>
+      <c r="H10">
+        <v>29.154539</v>
+      </c>
+      <c r="I10">
+        <v>0.1133949940112261</v>
+      </c>
+      <c r="J10">
+        <v>0.1133949940112261</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.002632</v>
+      </c>
+      <c r="N10">
+        <v>0.007896</v>
+      </c>
+      <c r="O10">
+        <v>6.230194780080539E-06</v>
+      </c>
+      <c r="P10">
+        <v>6.230194780080539E-06</v>
+      </c>
+      <c r="Q10">
+        <v>0.02557824888266667</v>
+      </c>
+      <c r="R10">
+        <v>0.230204239944</v>
+      </c>
+      <c r="S10">
+        <v>7.064728997760049E-07</v>
+      </c>
+      <c r="T10">
+        <v>7.064728997760049E-07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>8.11918550230858</v>
-      </c>
-      <c r="H10">
-        <v>8.11918550230858</v>
-      </c>
-      <c r="I10">
-        <v>0.1080859516391032</v>
-      </c>
-      <c r="J10">
-        <v>0.1080859516391032</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>320.649215988761</v>
-      </c>
-      <c r="N10">
-        <v>320.649215988761</v>
-      </c>
-      <c r="O10">
-        <v>0.8904047984655403</v>
-      </c>
-      <c r="P10">
-        <v>0.8904047984655403</v>
-      </c>
-      <c r="Q10">
-        <v>2603.410465782561</v>
-      </c>
-      <c r="R10">
-        <v>2603.410465782561</v>
-      </c>
-      <c r="S10">
-        <v>0.0962402499861718</v>
-      </c>
-      <c r="T10">
-        <v>0.0962402499861718</v>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>9.718179666666666</v>
+      </c>
+      <c r="H11">
+        <v>29.154539</v>
+      </c>
+      <c r="I11">
+        <v>0.1133949940112261</v>
+      </c>
+      <c r="J11">
+        <v>0.1133949940112261</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>58.61543533333333</v>
+      </c>
+      <c r="N11">
+        <v>175.846306</v>
+      </c>
+      <c r="O11">
+        <v>0.1387483203821739</v>
+      </c>
+      <c r="P11">
+        <v>0.1387483203821739</v>
+      </c>
+      <c r="Q11">
+        <v>569.6353318092148</v>
+      </c>
+      <c r="R11">
+        <v>5126.717986282934</v>
+      </c>
+      <c r="S11">
+        <v>0.01573336495880429</v>
+      </c>
+      <c r="T11">
+        <v>0.01573336495880429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>9.718179666666666</v>
+      </c>
+      <c r="H12">
+        <v>29.154539</v>
+      </c>
+      <c r="I12">
+        <v>0.1133949940112261</v>
+      </c>
+      <c r="J12">
+        <v>0.1133949940112261</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>28.58678433333334</v>
+      </c>
+      <c r="N12">
+        <v>85.76035300000001</v>
+      </c>
+      <c r="O12">
+        <v>0.06766764229970421</v>
+      </c>
+      <c r="P12">
+        <v>0.06766764229970421</v>
+      </c>
+      <c r="Q12">
+        <v>277.8115062435853</v>
+      </c>
+      <c r="R12">
+        <v>2500.303556192267</v>
+      </c>
+      <c r="S12">
+        <v>0.007673171893328748</v>
+      </c>
+      <c r="T12">
+        <v>0.00767317189332875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>9.718179666666666</v>
+      </c>
+      <c r="H13">
+        <v>29.154539</v>
+      </c>
+      <c r="I13">
+        <v>0.1133949940112261</v>
+      </c>
+      <c r="J13">
+        <v>0.1133949940112261</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>335.2538503333333</v>
+      </c>
+      <c r="N13">
+        <v>1005.761551</v>
+      </c>
+      <c r="O13">
+        <v>0.7935778071233418</v>
+      </c>
+      <c r="P13">
+        <v>0.7935778071233417</v>
+      </c>
+      <c r="Q13">
+        <v>3258.057151481109</v>
+      </c>
+      <c r="R13">
+        <v>29322.51436332999</v>
+      </c>
+      <c r="S13">
+        <v>0.08998775068619329</v>
+      </c>
+      <c r="T13">
+        <v>0.08998775068619329</v>
       </c>
     </row>
   </sheetData>
